--- a/CS300 Assignment 4.xlsx
+++ b/CS300 Assignment 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>BST Search Time</t>
+    <t>Number of Entries in Dataset</t>
   </si>
   <si>
-    <t>Array Search Time</t>
+    <t>BST Search Time (ms)</t>
   </si>
   <si>
-    <t>Number of Entries in Dataset</t>
+    <t>Array Search Time (ms)</t>
   </si>
 </sst>
 </file>
@@ -71,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,6 +86,951 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BST Search Time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1282.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Array Search Time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1997471712"/>
+        <c:axId val="1997329504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1997471712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1997329504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1997329504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1997471712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,7 +1299,7 @@
   <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -364,7 +1310,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -381,15 +1327,40 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1">
+        <v>150</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1282</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CS300 Assignment 4.xlsx
+++ b/CS300 Assignment 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Number of Entries in Dataset</t>
+    <t>BST Search Time (µs)</t>
   </si>
   <si>
-    <t>BST Search Time (ms)</t>
+    <t>Array Search Time (µs)</t>
   </si>
   <si>
-    <t>Array Search Time (ms)</t>
+    <t>avg</t>
   </si>
 </sst>
 </file>
@@ -103,6 +103,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Search Times in µs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -136,127 +161,170 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>BST Search Time</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BST Search Time (µs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:f>Sheet1!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1282.0</c:v>
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Array Search Time</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Array Search Time (µs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:f>Sheet1!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>14185.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>3159.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0</c:v>
+                  <c:v>462.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>213.0</c:v>
+                  <c:v>15734.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16733.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10054.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -266,13 +334,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1997471712"/>
-        <c:axId val="1997329504"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="1288214448"/>
+        <c:axId val="1265585904"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="1997471712"/>
+        <c:axId val="1288214448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -315,7 +382,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1997329504"/>
+        <c:crossAx val="1265585904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -323,7 +390,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1997329504"/>
+        <c:axId val="1265585904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -343,7 +410,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -374,7 +440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1997471712"/>
+        <c:crossAx val="1288214448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -496,7 +562,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -604,6 +670,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -614,6 +685,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -645,6 +721,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1003,19 +1082,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1296,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1308,55 +1387,72 @@
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>10000</v>
+      <c r="B3" s="1">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(B3:F3)</f>
+        <v>22.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1">
-        <v>150</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
       <c r="B4" s="1">
-        <v>6</v>
+        <v>14185</v>
       </c>
       <c r="C4" s="1">
-        <v>7</v>
+        <v>3159</v>
       </c>
       <c r="D4" s="1">
-        <v>30</v>
+        <v>462</v>
       </c>
       <c r="E4" s="1">
-        <v>213</v>
+        <v>15734</v>
+      </c>
+      <c r="F4">
+        <v>16733</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(B4:F4)</f>
+        <v>10054.6</v>
       </c>
     </row>
   </sheetData>

--- a/CS300 Assignment 4.xlsx
+++ b/CS300 Assignment 4.xlsx
@@ -1378,7 +1378,7 @@
   <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CS300 Assignment 4.xlsx
+++ b/CS300 Assignment 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>BST Search Time (µs)</t>
   </si>
   <si>
     <t>Array Search Time (µs)</t>
-  </si>
-  <si>
-    <t>avg</t>
   </si>
 </sst>
 </file>
@@ -71,9 +68,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,8 +121,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Search Times in µs</a:t>
+              <a:t>Search Time of BST</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Array for Different Amounts of Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -191,54 +194,43 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$2:$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -272,54 +264,43 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$2:$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:f>Sheet1!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14185.0</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3159.0</c:v>
+                  <c:v>343.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>462.0</c:v>
+                  <c:v>2771.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15734.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16733.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10054.6</c:v>
+                  <c:v>27472.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -335,17 +316,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1288214448"/>
-        <c:axId val="1265585904"/>
+        <c:axId val="1297046384"/>
+        <c:axId val="1342399312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1288214448"/>
+        <c:axId val="1297046384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -382,7 +363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1265585904"/>
+        <c:crossAx val="1342399312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -390,7 +371,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1265585904"/>
+        <c:axId val="1342399312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,7 +421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1288214448"/>
+        <c:crossAx val="1297046384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1082,19 +1063,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1375,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1387,72 +1368,52 @@
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>1</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
+        <v>1000</v>
       </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="C2" s="2">
+        <v>10000</v>
       </c>
-      <c r="D2">
-        <v>3</v>
+      <c r="D2" s="2">
+        <v>100000</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
+      <c r="E2" s="2">
+        <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <f>AVERAGE(B3:F3)</f>
-        <v>22.4</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>14185</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
-        <v>3159</v>
+        <v>343</v>
       </c>
       <c r="D4" s="1">
-        <v>462</v>
+        <v>2771</v>
       </c>
       <c r="E4" s="1">
-        <v>15734</v>
-      </c>
-      <c r="F4">
-        <v>16733</v>
-      </c>
-      <c r="G4">
-        <f>AVERAGE(B4:F4)</f>
-        <v>10054.6</v>
+        <v>27472</v>
       </c>
     </row>
   </sheetData>
